--- a/biology/Botanique/Proboscidea_(genre)/Proboscidea_(genre).xlsx
+++ b/biology/Botanique/Proboscidea_(genre)/Proboscidea_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proboscidea est un genre végétal de la famille des Pedaliaceae ou des Martyniaceae. Les fruits secs, sous forme de Capsules permettent la zoochorie. 
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (12 nov. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (12 nov. 2015) :
 Proboscidea althaeifolia (Benth.) Dcne.
 Proboscidea louisianica (P. Mill.) Thellung
 Proboscidea parviflora (Woot.) Woot. &amp; Standl.
 Proboscidea sabulosa Correll
 Proboscidea spicata Correll
-Selon NCBI  (12 nov.2015)[2]
+Selon NCBI  (12 nov.2015)
 Proboscidea althaeifolia
 Proboscidea fragrans
 Proboscidea louisianica
@@ -554,7 +568,9 @@
           <t>Fruits and graines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Proboscidea althaeifolia – Capsules - Muséum d'histoire naturelle de Toulouse
